--- a/HPV Data/DIA Vaccine Coverage Public CDC Data.xlsx
+++ b/HPV Data/DIA Vaccine Coverage Public CDC Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviahalsted/Desktop/desktop/DIA submission 2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C364723-8A04-0B44-B675-0A83E5230CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1497EC88-A677-D142-A6B8-7028226F3E7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16820" yWindow="460" windowWidth="11860" windowHeight="16580" firstSheet="10" activeTab="11" xr2:uid="{FC6A5E51-2201-7C46-BA84-EC7C507E796A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FC6A5E51-2201-7C46-BA84-EC7C507E796A}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="199">
   <si>
     <t xml:space="preserve">Guide: </t>
   </si>
@@ -566,13 +566,91 @@
   </si>
   <si>
     <t>(±12.4)</t>
+  </si>
+  <si>
+    <t>Adolescents surveyed for the data year…</t>
+  </si>
+  <si>
+    <t>Were interviewed during…</t>
+  </si>
+  <si>
+    <t>And born between</t>
+  </si>
+  <si>
+    <t>January 2016 — February 2017</t>
+  </si>
+  <si>
+    <t>January 1998 — February 2004</t>
+  </si>
+  <si>
+    <t>January 2015 — February 2016</t>
+  </si>
+  <si>
+    <t>January 1997 — February 2003</t>
+  </si>
+  <si>
+    <t>January 2014 — February 2015</t>
+  </si>
+  <si>
+    <t>January 1996 — February 2002</t>
+  </si>
+  <si>
+    <t>January 2013 — February 2014</t>
+  </si>
+  <si>
+    <t>January 1995 — February 2001</t>
+  </si>
+  <si>
+    <t>January 2012 — February 2013</t>
+  </si>
+  <si>
+    <t>January 1994 — February 2000</t>
+  </si>
+  <si>
+    <t>January 2011 — February 2012</t>
+  </si>
+  <si>
+    <t>January 1993 — February 1999</t>
+  </si>
+  <si>
+    <t>January 2010 — February 2011</t>
+  </si>
+  <si>
+    <t>January 1992 — February 1998</t>
+  </si>
+  <si>
+    <t>January 2009 — February 2010</t>
+  </si>
+  <si>
+    <t>January 1991 — February 1997</t>
+  </si>
+  <si>
+    <t>January 2008 — February 2009</t>
+  </si>
+  <si>
+    <t>January 1990 — February 1996</t>
+  </si>
+  <si>
+    <t>January 2007 — February 2008</t>
+  </si>
+  <si>
+    <t>January 1989 — February 1995</t>
+  </si>
+  <si>
+    <t>January 2006 — February 2007</t>
+  </si>
+  <si>
+    <t>January 1988 — February 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survery Dates, Interview Dates, and Birthdates: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -594,8 +672,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,8 +698,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -617,11 +713,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -631,6 +807,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,94 +1134,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552DA412-F57A-374C-B963-2E9CF209941E}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="67.6640625" customWidth="1"/>
     <col min="3" max="3" width="75.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="E2" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E3" s="7">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E4" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E5" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E6" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E7" s="7">
+        <v>2012</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E8" s="7">
+        <v>2011</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E9" s="7">
+        <v>2010</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E10" s="7">
+        <v>2009</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E11" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12" s="7">
+        <v>2007</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E13" s="10">
+        <v>2006</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
@@ -2868,7 +3205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92639731-475F-4548-8E08-01FD43C792DB}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
